--- a/doc/worklogs/Tobias.xlsx
+++ b/doc/worklogs/Tobias.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -68,6 +68,12 @@
     <t>Gjorde projektplanering efter projektpoängen. Gjorde usecases för install game, monitor match och check statistics. Gjorde övergripande diagram för systemet.</t>
   </si>
   <si>
+    <t>4, 5, 6, 7</t>
+  </si>
+  <si>
+    <t>Gjorde use cases och SSDs för analys-delen, samordnade oss i gruppen och delade ut arbetsuppgifter.</t>
+  </si>
+  <si>
     <t>Course Goals</t>
   </si>
   <si>
@@ -114,6 +120,12 @@
   </si>
   <si>
     <t>Check Statistics</t>
+  </si>
+  <si>
+    <t>Archive Tournament</t>
+  </si>
+  <si>
+    <t>Organize Tournament</t>
   </si>
 </sst>
 </file>
@@ -311,7 +323,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -362,6 +374,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1551,19 +1566,19 @@
     <row r="11">
       <c r="B11" s="4"/>
       <c r="C11" t="s" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1598,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1679,8 +1694,28 @@
       <c r="D5" s="17">
         <v>1.2</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="20">
+        <v>0.125</v>
+      </c>
       <c r="F5" s="17"/>
+    </row>
+    <row r="6" ht="44.35" customHeight="1">
+      <c r="A6" s="14">
+        <v>40844</v>
+      </c>
+      <c r="B6" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.125</v>
+      </c>
+      <c r="F6" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1707,55 +1742,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.6172" style="20" customWidth="1"/>
-    <col min="2" max="2" width="41.8594" style="20" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="11.6172" style="21" customWidth="1"/>
+    <col min="2" max="2" width="41.8594" style="21" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="21">
+      <c r="A2" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="21">
-        <v>19</v>
+      <c r="B2" t="s" s="22">
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="32.55" customHeight="1">
-      <c r="A3" s="22">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="23">
-        <v>20</v>
+      <c r="B3" t="s" s="24">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="32.35" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="25">
-        <v>21</v>
+      <c r="B4" t="s" s="26">
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="32.35" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="25">
-        <v>22</v>
+      <c r="B5" t="s" s="26">
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="25">
-        <v>23</v>
+      <c r="B6" t="s" s="26">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1810,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1783,64 +1818,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.11719" style="26" customWidth="1"/>
-    <col min="2" max="2" width="22.5391" style="26" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="26" customWidth="1"/>
+    <col min="1" max="1" width="9.11719" style="27" customWidth="1"/>
+    <col min="2" max="2" width="22.5469" style="27" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="21">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="21">
-        <v>27</v>
+      <c r="A2" t="s" s="22">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="22">
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="22">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="27">
-        <v>28</v>
+      <c r="B3" t="s" s="28">
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="28">
-        <v>29</v>
+      <c r="B4" t="s" s="29">
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="28">
-        <v>30</v>
+      <c r="B5" t="s" s="29">
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="28">
-        <v>31</v>
+      <c r="B6" t="s" s="29">
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="24">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="28">
-        <v>32</v>
-      </c>
+      <c r="B7" t="s" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/worklogs/Tobias.xlsx
+++ b/doc/worklogs/Tobias.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -59,9 +59,15 @@
     <t>Utformade kontrakt och diskuterade hur vi skulle lägga upp det.</t>
   </si>
   <si>
+    <t>1, 2</t>
+  </si>
+  <si>
     <t>Gick igenom hur våran domänmodell vi skulle se ut. Bestämde vilka use-cases vi skulle börja med. Gjorde use-case för logout.</t>
   </si>
   <si>
+    <t>1, 2, 4</t>
+  </si>
+  <si>
     <t>3, 4, 5</t>
   </si>
   <si>
@@ -74,6 +80,12 @@
     <t>Gjorde use cases och SSDs för analys-delen, samordnade oss i gruppen och delade ut arbetsuppgifter.</t>
   </si>
   <si>
+    <t>8, 9, 10, 11</t>
+  </si>
+  <si>
+    <t>Gjorde ID för flera olika use cases. Även flera DCDer.</t>
+  </si>
+  <si>
     <t>Course Goals</t>
   </si>
   <si>
@@ -126,6 +138,18 @@
   </si>
   <si>
     <t>Organize Tournament</t>
+  </si>
+  <si>
+    <t>Handle League</t>
+  </si>
+  <si>
+    <t>Handle Game</t>
+  </si>
+  <si>
+    <t>Conduct Tournament</t>
+  </si>
+  <si>
+    <t>Play Match</t>
   </si>
 </sst>
 </file>
@@ -323,7 +347,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -352,12 +376,15 @@
     <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="59" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -367,10 +394,13 @@
     <xf numFmtId="49" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1566,19 +1596,19 @@
     <row r="11">
       <c r="B11" s="4"/>
       <c r="C11" t="s" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1628,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1655,67 +1685,85 @@
       <c r="C3" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="D3" s="12">
-        <v>1.2</v>
+      <c r="D3" t="s" s="12">
+        <v>14</v>
       </c>
       <c r="E3" s="13">
         <v>0.04166666666666666</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" ht="56.35" customHeight="1">
-      <c r="A4" s="14">
+      <c r="A4" s="15">
         <v>40842</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="16">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="C4" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19">
         <v>0.1458333333333333</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" ht="56.35" customHeight="1">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>40843</v>
       </c>
-      <c r="B5" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="16">
+      <c r="B5" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="D5" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="E5" s="22">
         <v>0.125</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" ht="44.35" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="15">
         <v>40844</v>
       </c>
-      <c r="B6" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1.2</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="B6" t="s" s="21">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22">
         <v>0.125</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" ht="32.35" customHeight="1">
+      <c r="A7" s="15">
+        <v>40845</v>
+      </c>
+      <c r="B7" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="17">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="F7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1742,55 +1790,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.6172" style="21" customWidth="1"/>
-    <col min="2" max="2" width="41.8594" style="21" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.6172" style="23" customWidth="1"/>
+    <col min="2" max="2" width="41.8594" style="23" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="22">
+      <c r="A2" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="22">
-        <v>21</v>
+      <c r="B2" t="s" s="24">
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="32.55" customHeight="1">
-      <c r="A3" s="23">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="24">
-        <v>22</v>
+      <c r="B3" t="s" s="26">
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="32.35" customHeight="1">
-      <c r="A4" s="25">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="26">
-        <v>23</v>
+      <c r="B4" t="s" s="28">
+        <v>27</v>
       </c>
     </row>
     <row r="5" ht="32.35" customHeight="1">
-      <c r="A5" s="25">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="26">
-        <v>24</v>
+      <c r="B5" t="s" s="28">
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="25">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="26">
-        <v>25</v>
+      <c r="B6" t="s" s="28">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +1858,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1818,86 +1866,118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.11719" style="27" customWidth="1"/>
-    <col min="2" max="2" width="22.5469" style="27" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.11719" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.5469" style="29" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="22">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="22">
-        <v>29</v>
+      <c r="A2" t="s" s="24">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="24">
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="23">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="28">
-        <v>30</v>
+      <c r="B3" t="s" s="30">
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="25">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="29">
-        <v>31</v>
+      <c r="B4" t="s" s="31">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="25">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="29">
-        <v>32</v>
+      <c r="B5" t="s" s="31">
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="25">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="29">
-        <v>33</v>
+      <c r="B6" t="s" s="31">
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="25">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="29">
-        <v>34</v>
+      <c r="B7" t="s" s="31">
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="25">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="29">
-        <v>35</v>
+      <c r="B8" t="s" s="31">
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="25">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="29">
-        <v>36</v>
+      <c r="B9" t="s" s="31">
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="25">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" t="s" s="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="27">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="27">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" s="27">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" s="27">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/worklogs/Tobias.xlsx
+++ b/doc/worklogs/Tobias.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Gjorde ID för flera olika use cases. Även flera DCDer.</t>
+  </si>
+  <si>
+    <t>Gjorde mall för vyer och GUI med mera.</t>
+  </si>
+  <si>
+    <t>Gick igenom och dubbelkolla use cases.</t>
   </si>
   <si>
     <t>Course Goals</t>
@@ -156,11 +162,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="d mmm yyyy"/>
     <numFmt numFmtId="60" formatCode="[h]&quot;h&quot;"/>
     <numFmt numFmtId="61" formatCode="[h]&quot;h&quot; m&quot;m&quot;"/>
+    <numFmt numFmtId="62" formatCode="d-m"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -347,7 +354,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -407,6 +414,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="62" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1596,19 +1606,19 @@
     <row r="11">
       <c r="B11" s="4"/>
       <c r="C11" t="s" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1638,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1764,6 +1774,42 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="F7" s="20"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="15">
+        <v>40848</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="15">
+        <v>40849</v>
+      </c>
+      <c r="B9" s="23">
+        <v>40848</v>
+      </c>
+      <c r="C9" t="s" s="17">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="F9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1790,55 +1836,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.6172" style="23" customWidth="1"/>
-    <col min="2" max="2" width="41.8594" style="23" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.6172" style="24" customWidth="1"/>
+    <col min="2" max="2" width="41.8594" style="24" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="24">
+      <c r="A2" t="s" s="25">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="24">
-        <v>25</v>
+      <c r="B2" t="s" s="25">
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="32.55" customHeight="1">
-      <c r="A3" s="25">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="26">
-        <v>26</v>
+      <c r="B3" t="s" s="27">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="32.35" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="28">
-        <v>27</v>
+      <c r="B4" t="s" s="29">
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="32.35" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="28">
-        <v>28</v>
+      <c r="B5" t="s" s="29">
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="28">
-        <v>29</v>
+      <c r="B6" t="s" s="29">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1866,118 +1912,118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.11719" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.5469" style="29" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="29" customWidth="1"/>
+    <col min="1" max="1" width="9.11719" style="30" customWidth="1"/>
+    <col min="2" max="2" width="22.5469" style="30" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="24">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s" s="24">
-        <v>33</v>
+      <c r="A2" t="s" s="25">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="25">
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="25">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="30">
-        <v>34</v>
+      <c r="B3" t="s" s="31">
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="31">
-        <v>35</v>
+      <c r="B4" t="s" s="32">
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="31">
-        <v>36</v>
+      <c r="B5" t="s" s="32">
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="31">
-        <v>37</v>
+      <c r="B6" t="s" s="32">
+        <v>39</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="27">
+      <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="31">
-        <v>38</v>
+      <c r="B7" t="s" s="32">
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="31">
-        <v>39</v>
+      <c r="B8" t="s" s="32">
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="27">
+      <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="31">
-        <v>40</v>
+      <c r="B9" t="s" s="32">
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="27">
+      <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="31">
-        <v>41</v>
+      <c r="B10" t="s" s="32">
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="27">
+      <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="31">
-        <v>42</v>
+      <c r="B11" t="s" s="32">
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="27">
+      <c r="A12" s="28">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="31">
-        <v>43</v>
+      <c r="B12" t="s" s="32">
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="27">
+      <c r="A13" s="28">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="31">
-        <v>44</v>
+      <c r="B13" t="s" s="32">
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="27">
+      <c r="A14" s="28">
         <v>12</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/worklogs/Tobias.xlsx
+++ b/doc/worklogs/Tobias.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Gick igenom hur våran domänmodell vi skulle se ut. Bestämde vilka use-cases vi skulle börja med. Gjorde use-case för logout.</t>
   </si>
   <si>
-    <t>1, 2, 4</t>
+    <t>1, 2, 4, 5</t>
   </si>
   <si>
     <t>3, 4, 5</t>
@@ -89,9 +89,45 @@
     <t>Gjorde mall för vyer och GUI med mera.</t>
   </si>
   <si>
+    <t>1, 2, 3, 4, 6</t>
+  </si>
+  <si>
     <t>Gick igenom och dubbelkolla use cases.</t>
   </si>
   <si>
+    <t>1, 2, 5</t>
+  </si>
+  <si>
+    <t>Skrev om use case för att tydligare visa interaktion mellan system och actors. Börjat koda ett skal för klienten och designat lobbyview.</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 8, 9, 10</t>
+  </si>
+  <si>
+    <t>Gick igenom gruppen vi skulle opponera mots filer</t>
+  </si>
+  <si>
+    <t>3, 10, 12</t>
+  </si>
+  <si>
+    <t>Gjorde slides och gick igenom gruppen vi skulle opponera på. Ritade om ssds.</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 7, 9, 10, 12, 13, 14, 15</t>
+  </si>
+  <si>
+    <t>Redovisade och opponerade på dom andra. Gjorde om alla SSDs efter kommentarer från KAJA. Implementerade databasmanager samt lite annat smått.</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 8, 10, 11</t>
+  </si>
+  <si>
+    <t>Kodade sjukt mycket.</t>
+  </si>
+  <si>
+    <t>3, 4, 6, 7, 8, 9, 10</t>
+  </si>
+  <si>
     <t>Course Goals</t>
   </si>
   <si>
@@ -113,6 +149,40 @@
     <t>• använda ett CASE-verktyg</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">• utföra grundläggande modellering som en del av den objektorienterade analysen och designen </t>
+    </r>
+  </si>
+  <si>
+    <t>• använda de vanligaste konstruktionerna i Java och dess standardbibliotek</t>
+  </si>
+  <si>
+    <t>• använda konstruktionerna för undantagshantering i Java och dess standardbibliotek</t>
+  </si>
+  <si>
+    <t>• använda konstruktionerna för händelsehantering i Java och dess standardbibliotek</t>
+  </si>
+  <si>
+    <t>• använda konstruktionerna för layoutmanagers i Java och dess standardbibliotek</t>
+  </si>
+  <si>
+    <t>• använda konstruktionerna för trådning i Java och dess standardbibliotek</t>
+  </si>
+  <si>
+    <t>• använda konstruktionerna för databashantering i Java och dess standardbibliotek</t>
+  </si>
+  <si>
+    <t>• använda konstruktionerna för nätverkskommunikation i Java och dess standardbibliotek</t>
+  </si>
+  <si>
+    <t>• använda testning vid genomförande av objektorienterad utveckling</t>
+  </si>
+  <si>
     <t>Use Cases</t>
   </si>
   <si>
@@ -134,7 +204,7 @@
     <t>Install Game</t>
   </si>
   <si>
-    <t>Monitor Game</t>
+    <t>Monitor match</t>
   </si>
   <si>
     <t>Check Statistics</t>
@@ -156,6 +226,18 @@
   </si>
   <si>
     <t>Play Match</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Handle account balance</t>
+  </si>
+  <si>
+    <t>Handle advertisement</t>
+  </si>
+  <si>
+    <t>Handle tour style</t>
   </si>
 </sst>
 </file>
@@ -1606,19 +1688,19 @@
     <row r="11">
       <c r="B11" s="4"/>
       <c r="C11" t="s" s="4">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1638,7 +1720,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1785,8 +1867,8 @@
       <c r="C8" t="s" s="17">
         <v>23</v>
       </c>
-      <c r="D8" s="20">
-        <v>1.2</v>
+      <c r="D8" t="s" s="18">
+        <v>24</v>
       </c>
       <c r="E8" s="22">
         <v>0.04166666666666666</v>
@@ -1801,15 +1883,101 @@
         <v>40848</v>
       </c>
       <c r="C9" t="s" s="17">
-        <v>24</v>
-      </c>
-      <c r="D9" s="20">
-        <v>1.2</v>
+        <v>25</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>26</v>
       </c>
       <c r="E9" s="22">
         <v>0.04166666666666666</v>
       </c>
       <c r="F9" s="20"/>
+    </row>
+    <row r="10" ht="56.35" customHeight="1">
+      <c r="A10" s="15">
+        <v>40850</v>
+      </c>
+      <c r="B10" s="23">
+        <v>40695</v>
+      </c>
+      <c r="C10" t="s" s="17">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>28</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" ht="32.35" customHeight="1">
+      <c r="A11" s="15">
+        <v>40855</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="17">
+        <v>29</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="22">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" ht="32.35" customHeight="1">
+      <c r="A12" s="15">
+        <v>40856</v>
+      </c>
+      <c r="B12" t="s" s="21">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s" s="17">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" ht="56.35" customHeight="1">
+      <c r="A13" s="15">
+        <v>40857</v>
+      </c>
+      <c r="B13" t="s" s="21">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" ht="32.35" customHeight="1">
+      <c r="A14" s="15">
+        <v>40865</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" t="s" s="17">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1828,7 +1996,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1837,13 +2005,13 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="11.6172" style="24" customWidth="1"/>
-    <col min="2" max="2" width="41.8594" style="24" customWidth="1"/>
+    <col min="2" max="2" width="81.6719" style="24" customWidth="1"/>
     <col min="3" max="256" width="16.3516" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -1852,31 +2020,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="25">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="32.55" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="20.55" customHeight="1">
       <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" t="s" s="27">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" ht="32.35" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
       <c r="A4" s="28">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="32.35" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
       <c r="A5" s="28">
         <v>3</v>
       </c>
       <c r="B5" t="s" s="29">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
@@ -1884,7 +2052,79 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="29">
-        <v>31</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" s="28">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" s="28">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" s="28">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="29">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1904,7 +2144,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1919,16 +2159,16 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="A2" t="s" s="25">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="25">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="20.55" customHeight="1">
@@ -1936,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="31">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
@@ -1944,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="32">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
@@ -1952,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="32">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
@@ -1960,7 +2200,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="32">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
@@ -1968,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="32">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="20.35" customHeight="1">
@@ -1976,7 +2216,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="32">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="20.35" customHeight="1">
@@ -1984,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="32">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
@@ -1992,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="32">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" ht="20.35" customHeight="1">
@@ -2000,7 +2240,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="32">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" ht="20.35" customHeight="1">
@@ -2008,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="32">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="20.35" customHeight="1">
@@ -2016,14 +2256,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="32">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" s="28">
         <v>12</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" t="s" s="32">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" s="28">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="32">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" s="28">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" ht="20.35" customHeight="1">
+      <c r="A17" s="28">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="32">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
